--- a/Result.xlsx
+++ b/Result.xlsx
@@ -14,33 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>X4</t>
-  </si>
-  <si>
-    <t>X5</t>
-  </si>
-  <si>
-    <t>X6</t>
-  </si>
-  <si>
-    <t>F</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+  <si>
+    <t>Отправление</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>Запасы</t>
+  </si>
+  <si>
+    <t>А1</t>
+  </si>
+  <si>
+    <t>А2</t>
+  </si>
+  <si>
+    <t>А3</t>
+  </si>
+  <si>
+    <t>А4</t>
+  </si>
+  <si>
+    <t>Потребности</t>
   </si>
 </sst>
 </file>
@@ -398,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,327 +423,459 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>0.4</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>70</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="E31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>-260</v>
-      </c>
-      <c r="C6">
-        <v>-300</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="F35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>-30</v>
-      </c>
-      <c r="D9">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>0.5</v>
-      </c>
-      <c r="C10">
-        <v>2.5</v>
-      </c>
-      <c r="D10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>3.500000000000001</v>
-      </c>
-      <c r="C11">
-        <v>-12.5</v>
-      </c>
-      <c r="D11">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>-10</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>-110</v>
-      </c>
-      <c r="C13">
-        <v>750</v>
-      </c>
-      <c r="D13">
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>-9.999999999999998</v>
-      </c>
-      <c r="C16">
-        <v>69.99999999999999</v>
-      </c>
-      <c r="D16">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>-0.4999999999999999</v>
-      </c>
-      <c r="C17">
-        <v>7.499999999999998</v>
-      </c>
-      <c r="D17">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>-3.5</v>
-      </c>
-      <c r="C18">
-        <v>22.5</v>
-      </c>
-      <c r="D18">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="C19">
-        <v>-9.999999999999998</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>110</v>
-      </c>
-      <c r="C20">
-        <v>-349.9999999999998</v>
-      </c>
-      <c r="D20">
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>-0.1428571428571428</v>
-      </c>
-      <c r="C23">
-        <v>0.01428571428571429</v>
-      </c>
-      <c r="D23">
-        <v>4.285714285714286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="C24">
-        <v>-0.1071428571428571</v>
-      </c>
-      <c r="D24">
-        <v>42.85714285714286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>-0.2857142857142854</v>
-      </c>
-      <c r="C25">
-        <v>-0.3214285714285715</v>
-      </c>
-      <c r="D25">
-        <v>128.5714285714286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>-0.4285714285714287</v>
-      </c>
-      <c r="C26">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="D26">
-        <v>42.85714285714286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <v>59.99999999999999</v>
-      </c>
-      <c r="C27">
-        <v>4.999999999999998</v>
-      </c>
-      <c r="D27">
-        <v>24000</v>
+      <c r="B36">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
